--- a/sql/RBAC.xlsx
+++ b/sql/RBAC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22080" windowHeight="10575"/>
+    <workbookView windowWidth="22320" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="设计" sheetId="1" r:id="rId1"/>
@@ -456,9 +456,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -497,9 +497,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,23 +519,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,9 +536,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -559,25 +551,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -597,9 +582,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,14 +606,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,187 +690,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,21 +881,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -911,16 +896,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -958,6 +943,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -972,15 +981,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -989,10 +989,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1001,133 +1001,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1539,8 +1539,8 @@
   <sheetPr/>
   <dimension ref="A3:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3138,56 +3138,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" s="1" customFormat="1" spans="1:1">
-      <c r="A93" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="94" s="1" customFormat="1" spans="1:1">
-      <c r="A94" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="95" s="1" customFormat="1" spans="1:1">
-      <c r="A95" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="96" s="1" customFormat="1" spans="1:1">
-      <c r="A96" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="97" s="1" customFormat="1" spans="1:1">
-      <c r="A97" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="98" s="1" customFormat="1" spans="1:1">
-      <c r="A98" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="99" s="1" customFormat="1" spans="1:1">
-      <c r="A99" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="100" s="1" customFormat="1" spans="1:1">
-      <c r="A100" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="101" s="1" customFormat="1" spans="1:1">
-      <c r="A101" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="102" s="1" customFormat="1" spans="1:1">
-      <c r="A102" s="1">
-        <v>45</v>
-      </c>
-    </row>
+    <row r="93" s="1" customFormat="1"/>
+    <row r="94" s="1" customFormat="1"/>
+    <row r="95" s="1" customFormat="1"/>
+    <row r="96" s="1" customFormat="1"/>
+    <row r="97" s="1" customFormat="1"/>
+    <row r="98" s="1" customFormat="1"/>
+    <row r="99" s="1" customFormat="1"/>
+    <row r="100" s="1" customFormat="1"/>
+    <row r="101" s="1" customFormat="1"/>
+    <row r="102" s="1" customFormat="1"/>
     <row r="103" s="2" customFormat="1"/>
     <row r="104" s="2" customFormat="1"/>
     <row r="105" s="2" customFormat="1"/>

--- a/sql/RBAC.xlsx
+++ b/sql/RBAC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22320" windowHeight="11160"/>
+    <workbookView windowWidth="28800" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="设计" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="146">
   <si>
     <t>sys_user</t>
+  </si>
+  <si>
+    <t>可能需要删除</t>
   </si>
   <si>
     <t>uid</t>
@@ -456,9 +459,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -484,20 +487,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -506,7 +501,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,7 +515,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,6 +540,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,7 +585,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,13 +607,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -620,8 +615,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,187 +693,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,17 +884,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -906,6 +898,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -937,8 +938,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -958,15 +959,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -981,6 +973,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -989,10 +992,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1001,39 +1004,39 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1046,88 +1049,88 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1539,8 +1542,8 @@
   <sheetPr/>
   <dimension ref="A3:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1568,41 +1571,43 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1610,13 +1615,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
@@ -1630,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1638,13 +1643,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="6">
         <v>0</v>
@@ -1664,13 +1669,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
@@ -1699,20 +1704,20 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1744,7 +1749,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
@@ -1753,19 +1758,19 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1779,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E22" s="11"/>
     </row>
@@ -1794,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E23" s="11"/>
     </row>
@@ -1809,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E24" s="11"/>
     </row>
@@ -1824,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E25" s="11"/>
     </row>
@@ -1839,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E26" s="11"/>
     </row>
@@ -1854,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E27" s="11"/>
     </row>
@@ -1869,7 +1874,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E28" s="11"/>
     </row>
@@ -1884,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E29" s="11"/>
     </row>
@@ -1899,7 +1904,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E30" s="11"/>
     </row>
@@ -1914,26 +1919,26 @@
         <v>1</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E31" s="11"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2123,7 +2128,7 @@
     <row r="55" s="1" customFormat="1"/>
     <row r="56" s="1" customFormat="1" spans="1:11">
       <c r="A56" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
@@ -2138,37 +2143,37 @@
     </row>
     <row r="57" s="1" customFormat="1" spans="1:11">
       <c r="A57" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I57" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J57" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K57" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" spans="1:11">
@@ -2182,17 +2187,17 @@
         <v>0</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F58" s="16"/>
       <c r="G58" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I58" s="16"/>
       <c r="J58" s="16"/>
@@ -2211,25 +2216,25 @@
         <v>1</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F59" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G59" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G59" s="17" t="s">
-        <v>53</v>
-      </c>
       <c r="H59" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I59" s="17">
         <v>1</v>
       </c>
       <c r="J59" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K59" s="17">
         <v>1</v>
@@ -2246,7 +2251,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E60" s="18"/>
       <c r="F60" s="18"/>
@@ -2254,7 +2259,7 @@
       <c r="H60" s="18"/>
       <c r="I60" s="18"/>
       <c r="J60" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K60" s="18">
         <v>1</v>
@@ -2271,7 +2276,7 @@
         <v>2</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E61" s="18"/>
       <c r="F61" s="18"/>
@@ -2279,7 +2284,7 @@
       <c r="H61" s="18"/>
       <c r="I61" s="18"/>
       <c r="J61" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K61" s="18">
         <v>2</v>
@@ -2296,7 +2301,7 @@
         <v>2</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E62" s="18"/>
       <c r="F62" s="18"/>
@@ -2304,7 +2309,7 @@
       <c r="H62" s="18"/>
       <c r="I62" s="18"/>
       <c r="J62" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K62" s="18">
         <v>3</v>
@@ -2321,7 +2326,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E63" s="18"/>
       <c r="F63" s="18"/>
@@ -2329,7 +2334,7 @@
       <c r="H63" s="18"/>
       <c r="I63" s="18"/>
       <c r="J63" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K63" s="18">
         <v>4</v>
@@ -2346,25 +2351,25 @@
         <v>1</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F64" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G64" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G64" s="17" t="s">
-        <v>66</v>
-      </c>
       <c r="H64" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I64" s="17">
         <v>1</v>
       </c>
       <c r="J64" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K64" s="17">
         <v>2</v>
@@ -2381,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E65" s="18"/>
       <c r="F65" s="18"/>
@@ -2389,7 +2394,7 @@
       <c r="H65" s="18"/>
       <c r="I65" s="18"/>
       <c r="J65" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K65" s="18">
         <v>1</v>
@@ -2406,7 +2411,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E66" s="18"/>
       <c r="F66" s="18"/>
@@ -2414,7 +2419,7 @@
       <c r="H66" s="18"/>
       <c r="I66" s="18"/>
       <c r="J66" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K66" s="18">
         <v>2</v>
@@ -2431,7 +2436,7 @@
         <v>2</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E67" s="18"/>
       <c r="F67" s="18"/>
@@ -2439,7 +2444,7 @@
       <c r="H67" s="18"/>
       <c r="I67" s="18"/>
       <c r="J67" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K67" s="18">
         <v>3</v>
@@ -2456,25 +2461,25 @@
         <v>1</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F68" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G68" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G68" s="17" t="s">
-        <v>77</v>
-      </c>
       <c r="H68" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I68" s="17">
         <v>1</v>
       </c>
       <c r="J68" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K68" s="17">
         <v>3</v>
@@ -2491,7 +2496,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E69" s="18"/>
       <c r="F69" s="18"/>
@@ -2499,7 +2504,7 @@
       <c r="H69" s="18"/>
       <c r="I69" s="18"/>
       <c r="J69" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K69" s="18">
         <v>1</v>
@@ -2516,7 +2521,7 @@
         <v>2</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E70" s="18"/>
       <c r="F70" s="18"/>
@@ -2524,7 +2529,7 @@
       <c r="H70" s="18"/>
       <c r="I70" s="18"/>
       <c r="J70" s="18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K70" s="18">
         <v>2</v>
@@ -2541,7 +2546,7 @@
         <v>2</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E71" s="18"/>
       <c r="F71" s="18"/>
@@ -2549,7 +2554,7 @@
       <c r="H71" s="18"/>
       <c r="I71" s="18"/>
       <c r="J71" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K71" s="18">
         <v>3</v>
@@ -2566,17 +2571,17 @@
         <v>0</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H72" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I72" s="16"/>
       <c r="J72" s="16"/>
@@ -2595,25 +2600,25 @@
         <v>1</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F73" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G73" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="G73" s="17" t="s">
-        <v>90</v>
-      </c>
       <c r="H73" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I73" s="17">
         <v>1</v>
       </c>
       <c r="J73" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K73" s="17">
         <v>1</v>
@@ -2630,7 +2635,7 @@
         <v>2</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E74" s="18"/>
       <c r="F74" s="18"/>
@@ -2638,7 +2643,7 @@
       <c r="H74" s="18"/>
       <c r="I74" s="18"/>
       <c r="J74" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K74" s="18">
         <v>1</v>
@@ -2655,7 +2660,7 @@
         <v>2</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E75" s="18"/>
       <c r="F75" s="18"/>
@@ -2663,7 +2668,7 @@
       <c r="H75" s="18"/>
       <c r="I75" s="18"/>
       <c r="J75" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K75" s="18">
         <v>2</v>
@@ -2680,7 +2685,7 @@
         <v>2</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E76" s="18"/>
       <c r="F76" s="18"/>
@@ -2688,7 +2693,7 @@
       <c r="H76" s="18"/>
       <c r="I76" s="18"/>
       <c r="J76" s="18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K76" s="18">
         <v>3</v>
@@ -2705,7 +2710,7 @@
         <v>2</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E77" s="18"/>
       <c r="F77" s="18"/>
@@ -2713,7 +2718,7 @@
       <c r="H77" s="18"/>
       <c r="I77" s="18"/>
       <c r="J77" s="18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K77" s="18">
         <v>4</v>
@@ -2730,25 +2735,25 @@
         <v>1</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F78" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G78" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="G78" s="17" t="s">
-        <v>103</v>
-      </c>
       <c r="H78" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I78" s="17">
         <v>1</v>
       </c>
       <c r="J78" s="17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K78" s="17">
         <v>2</v>
@@ -2765,7 +2770,7 @@
         <v>2</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E79" s="18"/>
       <c r="F79" s="18"/>
@@ -2773,7 +2778,7 @@
       <c r="H79" s="18"/>
       <c r="I79" s="18"/>
       <c r="J79" s="18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K79" s="18">
         <v>1</v>
@@ -2790,7 +2795,7 @@
         <v>2</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E80" s="18"/>
       <c r="F80" s="18"/>
@@ -2798,7 +2803,7 @@
       <c r="H80" s="18"/>
       <c r="I80" s="18"/>
       <c r="J80" s="18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K80" s="18">
         <v>2</v>
@@ -2815,7 +2820,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E81" s="18"/>
       <c r="F81" s="18"/>
@@ -2823,7 +2828,7 @@
       <c r="H81" s="18"/>
       <c r="I81" s="18"/>
       <c r="J81" s="18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K81" s="18">
         <v>3</v>
@@ -2840,7 +2845,7 @@
         <v>2</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E82" s="18"/>
       <c r="F82" s="18"/>
@@ -2848,7 +2853,7 @@
       <c r="H82" s="18"/>
       <c r="I82" s="18"/>
       <c r="J82" s="18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K82" s="18">
         <v>4</v>
@@ -2865,17 +2870,17 @@
         <v>0</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F83" s="16"/>
       <c r="G83" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H83" s="16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I83" s="16"/>
       <c r="J83" s="16"/>
@@ -2894,25 +2899,25 @@
         <v>1</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F84" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G84" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="G84" s="17" t="s">
-        <v>119</v>
-      </c>
       <c r="H84" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I84" s="17">
         <v>1</v>
       </c>
       <c r="J84" s="17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K84" s="17">
         <v>1</v>
@@ -2929,7 +2934,7 @@
         <v>2</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E85" s="18"/>
       <c r="F85" s="18"/>
@@ -2937,7 +2942,7 @@
       <c r="H85" s="18"/>
       <c r="I85" s="18"/>
       <c r="J85" s="18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K85" s="18">
         <v>1</v>
@@ -2954,7 +2959,7 @@
         <v>2</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E86" s="18"/>
       <c r="F86" s="18"/>
@@ -2962,7 +2967,7 @@
       <c r="H86" s="18"/>
       <c r="I86" s="18"/>
       <c r="J86" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K86" s="18">
         <v>2</v>
@@ -2979,25 +2984,25 @@
         <v>1</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F87" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G87" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="G87" s="17" t="s">
-        <v>128</v>
-      </c>
       <c r="H87" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I87" s="17">
         <v>1</v>
       </c>
       <c r="J87" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K87" s="17">
         <v>2</v>
@@ -3014,7 +3019,7 @@
         <v>2</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E88" s="18"/>
       <c r="F88" s="18"/>
@@ -3022,7 +3027,7 @@
       <c r="H88" s="18"/>
       <c r="I88" s="18"/>
       <c r="J88" s="18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K88" s="18">
         <v>1</v>
@@ -3039,7 +3044,7 @@
         <v>2</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E89" s="18"/>
       <c r="F89" s="18"/>
@@ -3047,7 +3052,7 @@
       <c r="H89" s="18"/>
       <c r="I89" s="18"/>
       <c r="J89" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K89" s="18">
         <v>2</v>
@@ -3064,25 +3069,25 @@
         <v>1</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F90" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G90" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="G90" s="17" t="s">
-        <v>137</v>
-      </c>
       <c r="H90" s="17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I90" s="17">
         <v>1</v>
       </c>
       <c r="J90" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K90" s="17">
         <v>3</v>
@@ -3099,7 +3104,7 @@
         <v>2</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E91" s="18"/>
       <c r="F91" s="18"/>
@@ -3107,7 +3112,7 @@
       <c r="H91" s="18"/>
       <c r="I91" s="18"/>
       <c r="J91" s="18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K91" s="18">
         <v>1</v>
@@ -3124,7 +3129,7 @@
         <v>2</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E92" s="18"/>
       <c r="F92" s="18"/>
@@ -3132,7 +3137,7 @@
       <c r="H92" s="18"/>
       <c r="I92" s="18"/>
       <c r="J92" s="18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K92" s="18">
         <v>2</v>

--- a/sql/RBAC.xlsx
+++ b/sql/RBAC.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="84">
   <si>
     <t>sys_user</t>
   </si>
   <si>
-    <t>可能需要删除</t>
-  </si>
-  <si>
     <t>uid</t>
   </si>
   <si>
@@ -40,9 +37,6 @@
     <t>phone</t>
   </si>
   <si>
-    <t>avatar_path</t>
-  </si>
-  <si>
     <t>is_admin</t>
   </si>
   <si>
@@ -148,12 +142,6 @@
     <t>title</t>
   </si>
   <si>
-    <t>component</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
     <t>path</t>
   </si>
   <si>
@@ -169,21 +157,12 @@
     <t>系统管理</t>
   </si>
   <si>
-    <t>system</t>
-  </si>
-  <si>
     <t>/system</t>
   </si>
   <si>
     <t>用户管理</t>
   </si>
   <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>system/user.vue</t>
-  </si>
-  <si>
     <t>/system/user</t>
   </si>
   <si>
@@ -217,12 +196,6 @@
     <t>角色管理</t>
   </si>
   <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>system/role.vue</t>
-  </si>
-  <si>
     <t>/system/role</t>
   </si>
   <si>
@@ -250,12 +223,6 @@
     <t>菜单管理</t>
   </si>
   <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>system/menu.vue</t>
-  </si>
-  <si>
     <t>/system/menu</t>
   </si>
   <si>
@@ -280,178 +247,25 @@
     <t>system:menu:delete</t>
   </si>
   <si>
-    <t>账号管理</t>
-  </si>
-  <si>
-    <t>/account</t>
-  </si>
-  <si>
-    <t>QQ</t>
-  </si>
-  <si>
-    <t>qq</t>
-  </si>
-  <si>
-    <t>account/qq.vue</t>
-  </si>
-  <si>
-    <t>/account/qq</t>
-  </si>
-  <si>
-    <t>account:qq:list</t>
-  </si>
-  <si>
-    <t>QQ新增</t>
-  </si>
-  <si>
-    <t>account:qq:add</t>
-  </si>
-  <si>
-    <t>QQ编辑</t>
-  </si>
-  <si>
-    <t>account:qq:edit</t>
-  </si>
-  <si>
-    <t>QQ删除</t>
-  </si>
-  <si>
-    <t>account:qq:delete</t>
-  </si>
-  <si>
-    <t>QQ表格</t>
-  </si>
-  <si>
-    <t>account:qq:excel</t>
-  </si>
-  <si>
-    <t>微信</t>
-  </si>
-  <si>
-    <t>weixin</t>
-  </si>
-  <si>
-    <t>account/weixin.vue</t>
-  </si>
-  <si>
-    <t>/account/weixin</t>
-  </si>
-  <si>
-    <t>account:weixin:list</t>
-  </si>
-  <si>
-    <t>微信新增</t>
-  </si>
-  <si>
-    <t>account:weixin:add</t>
-  </si>
-  <si>
-    <t>微信编辑</t>
-  </si>
-  <si>
-    <t>account:weixin:edit</t>
-  </si>
-  <si>
-    <t>微信删除</t>
-  </si>
-  <si>
-    <t>account:weixin:delete</t>
-  </si>
-  <si>
-    <t>微信表格</t>
-  </si>
-  <si>
-    <t>account:weixin:excel</t>
-  </si>
-  <si>
-    <t>文件管理</t>
-  </si>
-  <si>
-    <t>file</t>
-  </si>
-  <si>
-    <t>/file</t>
-  </si>
-  <si>
-    <t>文档文件</t>
-  </si>
-  <si>
-    <t>office</t>
-  </si>
-  <si>
-    <t>file/office.vue</t>
-  </si>
-  <si>
-    <t>/file/office</t>
-  </si>
-  <si>
-    <t>file:office:list</t>
-  </si>
-  <si>
-    <t>文档上传</t>
-  </si>
-  <si>
-    <t>file:office:upload</t>
-  </si>
-  <si>
-    <t>文档下载</t>
-  </si>
-  <si>
-    <t>file:office:download</t>
-  </si>
-  <si>
-    <t>脚本文件</t>
-  </si>
-  <si>
-    <t>script</t>
-  </si>
-  <si>
-    <t>file/script.vue</t>
-  </si>
-  <si>
-    <t>/file/script</t>
-  </si>
-  <si>
-    <t>file:script:list</t>
-  </si>
-  <si>
-    <t>脚本上传</t>
-  </si>
-  <si>
-    <t>file:script:upload</t>
-  </si>
-  <si>
-    <t>脚本下载</t>
-  </si>
-  <si>
-    <t>file:script:download</t>
-  </si>
-  <si>
-    <t>应用文件</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>file/app.vue</t>
-  </si>
-  <si>
-    <t>/file/app</t>
-  </si>
-  <si>
-    <t>file:app:list</t>
-  </si>
-  <si>
-    <t>应用上传</t>
-  </si>
-  <si>
-    <t>file:app:upload</t>
-  </si>
-  <si>
-    <t>应用下载</t>
-  </si>
-  <si>
-    <t>file:app:download</t>
+    <t>操作日志</t>
+  </si>
+  <si>
+    <t>/system/log</t>
+  </si>
+  <si>
+    <t>system:log:list</t>
+  </si>
+  <si>
+    <t>清空日志</t>
+  </si>
+  <si>
+    <t>system:log:delete</t>
+  </si>
+  <si>
+    <t>日志表格</t>
+  </si>
+  <si>
+    <t>system:log:excel</t>
   </si>
 </sst>
 </file>
@@ -460,9 +274,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -486,8 +300,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,7 +323,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,13 +339,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,19 +352,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -599,6 +422,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -607,24 +437,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,25 +507,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,157 +681,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,6 +698,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -898,15 +738,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -938,6 +769,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -958,32 +798,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -992,10 +806,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1004,19 +818,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1025,13 +839,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1043,94 +854,97 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1540,10 +1354,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:K130"/>
+  <dimension ref="A3:K103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1552,17 +1366,17 @@
     <col min="2" max="2" width="10.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="19.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="17.125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="7.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="6.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="17.125" style="3" customWidth="1"/>
     <col min="10" max="10" width="23.75" style="3" customWidth="1"/>
     <col min="11" max="11" width="8.375" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1571,126 +1385,117 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6" t="s">
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6">
-        <v>1</v>
-      </c>
-      <c r="J5" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="5">
-        <v>2</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="E6" s="6">
         <v>0</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="G6" s="6">
+        <v>2</v>
+      </c>
       <c r="H6" s="6">
-        <v>2</v>
-      </c>
-      <c r="I6" s="6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="G7" s="6">
+        <v>2</v>
+      </c>
       <c r="H7" s="6">
-        <v>2</v>
-      </c>
-      <c r="I7" s="6">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="5"/>
@@ -1700,24 +1505,23 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1749,7 +1553,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
@@ -1758,19 +1562,19 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="C21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>28</v>
-      </c>
       <c r="E21" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1784,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E22" s="11"/>
     </row>
@@ -1799,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E23" s="11"/>
     </row>
@@ -1814,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E24" s="11"/>
     </row>
@@ -1829,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E25" s="11"/>
     </row>
@@ -1844,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E26" s="11"/>
     </row>
@@ -1859,7 +1663,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E27" s="11"/>
     </row>
@@ -1874,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E28" s="11"/>
     </row>
@@ -1889,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E29" s="11"/>
     </row>
@@ -1904,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E30" s="11"/>
     </row>
@@ -1919,26 +1723,26 @@
         <v>1</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E31" s="11"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2126,9 +1930,9 @@
     <row r="53" s="1" customFormat="1"/>
     <row r="54" s="1" customFormat="1"/>
     <row r="55" s="1" customFormat="1"/>
-    <row r="56" s="1" customFormat="1" spans="1:11">
+    <row r="56" s="1" customFormat="1" spans="1:8">
       <c r="A56" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
@@ -2137,46 +1941,34 @@
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="1:11">
+    </row>
+    <row r="57" s="1" customFormat="1" spans="1:8">
       <c r="A57" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B57" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D57" s="15" t="s">
+      <c r="E57" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E57" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F57" s="15" t="s">
+      <c r="G57" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G57" s="15" t="s">
+      <c r="H57" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="H57" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I57" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="J57" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="K57" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58" s="1" customFormat="1" spans="1:11">
+    </row>
+    <row r="58" s="1" customFormat="1" spans="1:8">
       <c r="A58" s="16">
         <v>1</v>
       </c>
@@ -2187,60 +1979,44 @@
         <v>0</v>
       </c>
       <c r="D58" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="1:8">
+      <c r="A59" s="17">
+        <v>2</v>
+      </c>
+      <c r="B59" s="17">
+        <v>1</v>
+      </c>
+      <c r="C59" s="17">
+        <v>1</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F59" s="17">
+        <v>1</v>
+      </c>
+      <c r="G59" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E58" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H58" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" s="1" customFormat="1" spans="1:11">
-      <c r="A59" s="17">
-        <v>2</v>
-      </c>
-      <c r="B59" s="17">
-        <v>1</v>
-      </c>
-      <c r="C59" s="17">
-        <v>1</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E59" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F59" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G59" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H59" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="I59" s="17">
-        <v>1</v>
-      </c>
-      <c r="J59" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="K59" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" s="1" customFormat="1" spans="1:11">
+      <c r="H59" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="1:8">
       <c r="A60" s="18">
         <v>3</v>
       </c>
@@ -2251,21 +2027,18 @@
         <v>2</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E60" s="18"/>
       <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="K60" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" s="1" customFormat="1" spans="1:11">
+      <c r="G60" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H60" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="1:8">
       <c r="A61" s="18">
         <v>4</v>
       </c>
@@ -2276,21 +2049,18 @@
         <v>2</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E61" s="18"/>
       <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="K61" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" s="1" customFormat="1" spans="1:11">
+      <c r="G61" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H61" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="1:8">
       <c r="A62" s="18">
         <v>5</v>
       </c>
@@ -2301,21 +2071,18 @@
         <v>2</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E62" s="18"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="K62" s="18">
+      <c r="G62" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H62" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" spans="1:11">
+    <row r="63" s="1" customFormat="1" spans="1:8">
       <c r="A63" s="18">
         <v>6</v>
       </c>
@@ -2326,21 +2093,18 @@
         <v>2</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E63" s="18"/>
       <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="K63" s="18">
+      <c r="G63" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H63" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="64" s="1" customFormat="1" spans="1:11">
+    <row r="64" s="1" customFormat="1" spans="1:8">
       <c r="A64" s="17">
         <v>7</v>
       </c>
@@ -2351,31 +2115,22 @@
         <v>1</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F64" s="17" t="s">
-        <v>68</v>
+        <v>60</v>
+      </c>
+      <c r="F64" s="17">
+        <v>1</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H64" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="I64" s="17">
-        <v>1</v>
-      </c>
-      <c r="J64" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="K64" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" s="1" customFormat="1" spans="1:11">
+        <v>61</v>
+      </c>
+      <c r="H64" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="1:8">
       <c r="A65" s="18">
         <v>8</v>
       </c>
@@ -2386,21 +2141,18 @@
         <v>2</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E65" s="18"/>
       <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="K65" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" s="1" customFormat="1" spans="1:11">
+      <c r="G65" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H65" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="1:8">
       <c r="A66" s="18">
         <v>9</v>
       </c>
@@ -2411,21 +2163,18 @@
         <v>2</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E66" s="18"/>
       <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="K66" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" s="1" customFormat="1" spans="1:11">
+      <c r="G66" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H66" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="1:8">
       <c r="A67" s="18">
         <v>10</v>
       </c>
@@ -2436,21 +2185,18 @@
         <v>2</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E67" s="18"/>
       <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="K67" s="18">
+      <c r="G67" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="H67" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="68" s="1" customFormat="1" spans="1:11">
+    <row r="68" s="1" customFormat="1" spans="1:8">
       <c r="A68" s="17">
         <v>11</v>
       </c>
@@ -2461,31 +2207,22 @@
         <v>1</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F68" s="17" t="s">
-        <v>79</v>
+        <v>69</v>
+      </c>
+      <c r="F68" s="17">
+        <v>1</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="H68" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="I68" s="17">
-        <v>1</v>
-      </c>
-      <c r="J68" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="K68" s="17">
+        <v>70</v>
+      </c>
+      <c r="H68" s="17">
         <v>3</v>
       </c>
     </row>
-    <row r="69" s="1" customFormat="1" spans="1:11">
+    <row r="69" s="1" customFormat="1" spans="1:8">
       <c r="A69" s="18">
         <v>12</v>
       </c>
@@ -2496,21 +2233,18 @@
         <v>2</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E69" s="18"/>
       <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="K69" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" s="1" customFormat="1" spans="1:11">
+      <c r="G69" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H69" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="1:8">
       <c r="A70" s="18">
         <v>13</v>
       </c>
@@ -2521,21 +2255,18 @@
         <v>2</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E70" s="18"/>
       <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="K70" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" s="1" customFormat="1" spans="1:11">
+      <c r="G70" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H70" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="1:8">
       <c r="A71" s="18">
         <v>14</v>
       </c>
@@ -2546,600 +2277,84 @@
         <v>2</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E71" s="18"/>
       <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="K71" s="18">
+      <c r="G71" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H71" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="72" s="1" customFormat="1" spans="1:11">
-      <c r="A72" s="16">
+    <row r="72" s="1" customFormat="1" spans="1:8">
+      <c r="A72" s="17">
         <v>15</v>
       </c>
-      <c r="B72" s="16">
-        <v>0</v>
-      </c>
-      <c r="C72" s="16">
-        <v>0</v>
-      </c>
-      <c r="D72" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E72" s="16" t="s">
+      <c r="B72" s="17">
+        <v>1</v>
+      </c>
+      <c r="C72" s="17">
+        <v>1</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F72" s="17">
+        <v>1</v>
+      </c>
+      <c r="G72" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H72" s="17">
         <v>4</v>
       </c>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H72" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" s="1" customFormat="1" spans="1:11">
-      <c r="A73" s="17">
+    </row>
+    <row r="73" s="1" customFormat="1" spans="1:8">
+      <c r="A73" s="18">
         <v>16</v>
       </c>
-      <c r="B73" s="17">
+      <c r="B73" s="18">
         <v>15</v>
       </c>
-      <c r="C73" s="17">
-        <v>1</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E73" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="F73" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="G73" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H73" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="I73" s="17">
-        <v>1</v>
-      </c>
-      <c r="J73" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="K73" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" s="1" customFormat="1" spans="1:11">
+      <c r="C73" s="18">
+        <v>2</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H73" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="1:8">
       <c r="A74" s="18">
         <v>17</v>
       </c>
       <c r="B74" s="18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C74" s="18">
         <v>2</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E74" s="18"/>
       <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="K74" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" s="1" customFormat="1" spans="1:11">
-      <c r="A75" s="18">
-        <v>18</v>
-      </c>
-      <c r="B75" s="18">
-        <v>16</v>
-      </c>
-      <c r="C75" s="18">
-        <v>2</v>
-      </c>
-      <c r="D75" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="K75" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" s="1" customFormat="1" spans="1:11">
-      <c r="A76" s="18">
-        <v>19</v>
-      </c>
-      <c r="B76" s="18">
-        <v>16</v>
-      </c>
-      <c r="C76" s="18">
-        <v>2</v>
-      </c>
-      <c r="D76" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="K76" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" s="1" customFormat="1" spans="1:11">
-      <c r="A77" s="18">
-        <v>20</v>
-      </c>
-      <c r="B77" s="18">
-        <v>16</v>
-      </c>
-      <c r="C77" s="18">
-        <v>2</v>
-      </c>
-      <c r="D77" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="18"/>
-      <c r="J77" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="K77" s="18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" s="1" customFormat="1" spans="1:11">
-      <c r="A78" s="17">
-        <v>21</v>
-      </c>
-      <c r="B78" s="17">
-        <v>15</v>
-      </c>
-      <c r="C78" s="17">
-        <v>1</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E78" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="F78" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="G78" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="H78" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="I78" s="17">
-        <v>1</v>
-      </c>
-      <c r="J78" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="K78" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" s="1" customFormat="1" spans="1:11">
-      <c r="A79" s="18">
-        <v>22</v>
-      </c>
-      <c r="B79" s="18">
-        <v>21</v>
-      </c>
-      <c r="C79" s="18">
-        <v>2</v>
-      </c>
-      <c r="D79" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="K79" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" s="1" customFormat="1" spans="1:11">
-      <c r="A80" s="18">
-        <v>23</v>
-      </c>
-      <c r="B80" s="18">
-        <v>21</v>
-      </c>
-      <c r="C80" s="18">
-        <v>2</v>
-      </c>
-      <c r="D80" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="K80" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" s="1" customFormat="1" spans="1:11">
-      <c r="A81" s="18">
-        <v>24</v>
-      </c>
-      <c r="B81" s="18">
-        <v>21</v>
-      </c>
-      <c r="C81" s="18">
-        <v>2</v>
-      </c>
-      <c r="D81" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="K81" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" s="1" customFormat="1" spans="1:11">
-      <c r="A82" s="18">
-        <v>25</v>
-      </c>
-      <c r="B82" s="18">
-        <v>21</v>
-      </c>
-      <c r="C82" s="18">
-        <v>2</v>
-      </c>
-      <c r="D82" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="K82" s="18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" s="1" customFormat="1" spans="1:11">
-      <c r="A83" s="16">
-        <v>26</v>
-      </c>
-      <c r="B83" s="16">
-        <v>0</v>
-      </c>
-      <c r="C83" s="16">
-        <v>0</v>
-      </c>
-      <c r="D83" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="E83" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="H83" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="I83" s="16"/>
-      <c r="J83" s="16"/>
-      <c r="K83" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" s="1" customFormat="1" spans="1:11">
-      <c r="A84" s="17">
-        <v>27</v>
-      </c>
-      <c r="B84" s="17">
-        <v>26</v>
-      </c>
-      <c r="C84" s="17">
-        <v>1</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E84" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="F84" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="G84" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="H84" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="I84" s="17">
-        <v>1</v>
-      </c>
-      <c r="J84" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="K84" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" s="1" customFormat="1" spans="1:11">
-      <c r="A85" s="18">
-        <v>28</v>
-      </c>
-      <c r="B85" s="18">
-        <v>27</v>
-      </c>
-      <c r="C85" s="18">
-        <v>2</v>
-      </c>
-      <c r="D85" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
-      <c r="I85" s="18"/>
-      <c r="J85" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="K85" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" s="1" customFormat="1" spans="1:11">
-      <c r="A86" s="18">
-        <v>29</v>
-      </c>
-      <c r="B86" s="18">
-        <v>27</v>
-      </c>
-      <c r="C86" s="18">
-        <v>2</v>
-      </c>
-      <c r="D86" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
-      <c r="I86" s="18"/>
-      <c r="J86" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="K86" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" s="1" customFormat="1" spans="1:11">
-      <c r="A87" s="17">
-        <v>30</v>
-      </c>
-      <c r="B87" s="17">
-        <v>26</v>
-      </c>
-      <c r="C87" s="17">
-        <v>1</v>
-      </c>
-      <c r="D87" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E87" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="F87" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="G87" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="H87" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="I87" s="17">
-        <v>1</v>
-      </c>
-      <c r="J87" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="K87" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" s="1" customFormat="1" spans="1:11">
-      <c r="A88" s="18">
-        <v>31</v>
-      </c>
-      <c r="B88" s="18">
-        <v>30</v>
-      </c>
-      <c r="C88" s="18">
-        <v>2</v>
-      </c>
-      <c r="D88" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
-      <c r="I88" s="18"/>
-      <c r="J88" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="K88" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" s="1" customFormat="1" spans="1:11">
-      <c r="A89" s="18">
-        <v>32</v>
-      </c>
-      <c r="B89" s="18">
-        <v>30</v>
-      </c>
-      <c r="C89" s="18">
-        <v>2</v>
-      </c>
-      <c r="D89" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="18"/>
-      <c r="I89" s="18"/>
-      <c r="J89" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="K89" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" s="1" customFormat="1" spans="1:11">
-      <c r="A90" s="17">
-        <v>33</v>
-      </c>
-      <c r="B90" s="17">
-        <v>26</v>
-      </c>
-      <c r="C90" s="17">
-        <v>1</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E90" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="F90" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="G90" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="H90" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="I90" s="17">
-        <v>1</v>
-      </c>
-      <c r="J90" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="K90" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" s="1" customFormat="1" spans="1:11">
-      <c r="A91" s="18">
-        <v>34</v>
-      </c>
-      <c r="B91" s="18">
-        <v>33</v>
-      </c>
-      <c r="C91" s="18">
-        <v>2</v>
-      </c>
-      <c r="D91" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
-      <c r="H91" s="18"/>
-      <c r="I91" s="18"/>
-      <c r="J91" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="K91" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" s="1" customFormat="1" spans="1:11">
-      <c r="A92" s="18">
-        <v>35</v>
-      </c>
-      <c r="B92" s="18">
-        <v>33</v>
-      </c>
-      <c r="C92" s="18">
-        <v>2</v>
-      </c>
-      <c r="D92" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="K92" s="18">
+      <c r="G74" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H74" s="18">
         <v>2</v>
       </c>
     </row>
@@ -3151,36 +2366,9 @@
     <row r="98" s="1" customFormat="1"/>
     <row r="99" s="1" customFormat="1"/>
     <row r="100" s="1" customFormat="1"/>
-    <row r="101" s="1" customFormat="1"/>
-    <row r="102" s="1" customFormat="1"/>
+    <row r="101" s="2" customFormat="1"/>
+    <row r="102" s="2" customFormat="1"/>
     <row r="103" s="2" customFormat="1"/>
-    <row r="104" s="2" customFormat="1"/>
-    <row r="105" s="2" customFormat="1"/>
-    <row r="106" s="2" customFormat="1"/>
-    <row r="107" s="2" customFormat="1"/>
-    <row r="108" s="2" customFormat="1"/>
-    <row r="109" s="2" customFormat="1"/>
-    <row r="110" s="2" customFormat="1"/>
-    <row r="111" s="2" customFormat="1"/>
-    <row r="112" s="2" customFormat="1"/>
-    <row r="113" s="2" customFormat="1"/>
-    <row r="114" s="2" customFormat="1"/>
-    <row r="115" s="2" customFormat="1"/>
-    <row r="116" s="2" customFormat="1"/>
-    <row r="117" s="2" customFormat="1"/>
-    <row r="118" s="2" customFormat="1"/>
-    <row r="119" s="2" customFormat="1"/>
-    <row r="120" s="2" customFormat="1"/>
-    <row r="121" s="2" customFormat="1"/>
-    <row r="122" s="2" customFormat="1"/>
-    <row r="123" s="2" customFormat="1"/>
-    <row r="124" s="2" customFormat="1"/>
-    <row r="125" s="2" customFormat="1"/>
-    <row r="126" s="2" customFormat="1"/>
-    <row r="127" s="2" customFormat="1"/>
-    <row r="128" s="2" customFormat="1"/>
-    <row r="129" s="2" customFormat="1"/>
-    <row r="130" s="2" customFormat="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" display="1524210155@qq.com" tooltip="mailto:1524210155@qq.com"/>
